--- a/数据库表.xlsx
+++ b/数据库表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目code\Java\consume-system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E43E53-F9DF-456D-8005-6A62271A4F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5495AB3-ACDD-4A79-BB23-658CB473E376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{7393575C-672D-455A-9932-B6C0304083C4}"/>
+    <workbookView xWindow="690" yWindow="4185" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{7393575C-672D-455A-9932-B6C0304083C4}"/>
   </bookViews>
   <sheets>
     <sheet name="字典表" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="59">
   <si>
     <t>字段名</t>
   </si>
@@ -250,6 +250,14 @@
   </si>
   <si>
     <t>10,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1197,13 +1205,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F5F48E-E36F-4B33-B9EB-2F743F3D049E}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
@@ -1277,13 +1288,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3">
-        <v>255</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -1292,18 +1303,18 @@
         <v>7</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3">
-        <v>2</v>
+        <v>255</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -1312,18 +1323,18 @@
         <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
@@ -1332,17 +1343,19 @@
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>64</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1350,19 +1363,17 @@
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3">
-        <v>64</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1370,17 +1381,19 @@
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>64</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1388,19 +1401,17 @@
         <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1408,26 +1419,46 @@
         <v>7</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3">
         <v>255</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1444,7 +1475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75B7D6C-314E-41BF-955A-117BF240D2F8}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>

--- a/数据库表.xlsx
+++ b/数据库表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目code\Java\consume-system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5495AB3-ACDD-4A79-BB23-658CB473E376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADA7C45-CAAE-4B1A-9A43-29ACAC42ACAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="4185" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{7393575C-672D-455A-9932-B6C0304083C4}"/>
+    <workbookView xWindow="1035" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{7393575C-672D-455A-9932-B6C0304083C4}"/>
   </bookViews>
   <sheets>
     <sheet name="字典表" sheetId="5" r:id="rId1"/>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>create_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>datetime</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -105,10 +101,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>update_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>更新时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -259,6 +251,12 @@
   <si>
     <t>用户类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_date</t>
+  </si>
+  <si>
+    <t>update_date</t>
   </si>
 </sst>
 </file>
@@ -697,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A701E8-2B63-4747-87E3-F1338E7C2494}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -710,7 +708,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -760,7 +758,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -775,12 +773,12 @@
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
@@ -795,12 +793,12 @@
         <v>7</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -815,12 +813,12 @@
         <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -835,7 +833,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -855,15 +853,15 @@
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="1" t="s">
@@ -873,12 +871,12 @@
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>6</v>
@@ -893,15 +891,15 @@
         <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="1" t="s">
@@ -911,12 +909,12 @@
         <v>7</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
@@ -931,12 +929,12 @@
         <v>7</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>6</v>
@@ -951,7 +949,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -982,7 +980,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1052,7 +1050,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
@@ -1087,15 +1085,15 @@
         <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="1" t="s">
@@ -1105,12 +1103,12 @@
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -1125,15 +1123,15 @@
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="1" t="s">
@@ -1143,12 +1141,12 @@
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
@@ -1163,12 +1161,12 @@
         <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>6</v>
@@ -1183,7 +1181,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1207,7 +1205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F5F48E-E36F-4B33-B9EB-2F743F3D049E}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -1218,7 +1216,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1268,7 +1266,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -1283,12 +1281,12 @@
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -1303,12 +1301,12 @@
         <v>7</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -1323,12 +1321,12 @@
         <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -1343,7 +1341,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1363,15 +1361,15 @@
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="1" t="s">
@@ -1381,12 +1379,12 @@
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>6</v>
@@ -1401,15 +1399,15 @@
         <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="1" t="s">
@@ -1419,12 +1417,12 @@
         <v>7</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
@@ -1439,12 +1437,12 @@
         <v>7</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>6</v>
@@ -1459,7 +1457,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1487,7 +1485,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1537,7 +1535,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -1552,12 +1550,12 @@
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -1572,15 +1570,15 @@
         <v>7</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="1" t="s">
@@ -1590,18 +1588,18 @@
         <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
@@ -1610,12 +1608,12 @@
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -1630,7 +1628,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1650,15 +1648,15 @@
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="1" t="s">
@@ -1668,12 +1666,12 @@
         <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
@@ -1688,15 +1686,15 @@
         <v>7</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="1" t="s">
@@ -1706,12 +1704,12 @@
         <v>7</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
@@ -1726,12 +1724,12 @@
         <v>7</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>6</v>
@@ -1746,7 +1744,7 @@
         <v>7</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
